--- a/Code/Results/Cases/Case_0_134/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_134/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2147269993807441</v>
+        <v>0.2112817974325054</v>
       </c>
       <c r="D2">
-        <v>0.04237345317888952</v>
+        <v>0.03356928693140304</v>
       </c>
       <c r="E2">
-        <v>0.1482159317583935</v>
+        <v>0.1385115884149286</v>
       </c>
       <c r="F2">
-        <v>0.6068967491446671</v>
+        <v>0.884979621285467</v>
       </c>
       <c r="G2">
-        <v>0.0007924133419206143</v>
+        <v>0.002444501933936343</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5578998586287653</v>
+        <v>0.8968768905397013</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.404874969301375</v>
+        <v>1.292938381585259</v>
       </c>
       <c r="L2">
-        <v>0.1903819995155089</v>
+        <v>0.1720401223051127</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8571602155995066</v>
+        <v>1.151368158417853</v>
       </c>
       <c r="O2">
-        <v>1.781611933356515</v>
+        <v>3.101477292433259</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1910349557480373</v>
+        <v>0.2058674232783773</v>
       </c>
       <c r="D3">
-        <v>0.03887722506959079</v>
+        <v>0.03234779499374696</v>
       </c>
       <c r="E3">
-        <v>0.1317426753318607</v>
+        <v>0.1349320559623308</v>
       </c>
       <c r="F3">
-        <v>0.5615726342061009</v>
+        <v>0.8819231710076352</v>
       </c>
       <c r="G3">
-        <v>0.0007968459940116968</v>
+        <v>0.002447475992539661</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5204458053735479</v>
+        <v>0.8955943750005275</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.960354374696294</v>
+        <v>1.159043441705194</v>
       </c>
       <c r="L3">
-        <v>0.1690934257669312</v>
+        <v>0.1675567201159041</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8532437479806632</v>
+        <v>1.152833937551137</v>
       </c>
       <c r="O3">
-        <v>1.681274704670386</v>
+        <v>3.106779978279462</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1766636320128612</v>
+        <v>0.2026350195367712</v>
       </c>
       <c r="D4">
-        <v>0.03672334134910216</v>
+        <v>0.0315918504884749</v>
       </c>
       <c r="E4">
-        <v>0.1217880445819119</v>
+        <v>0.1328066588962393</v>
       </c>
       <c r="F4">
-        <v>0.5350765310292189</v>
+        <v>0.8806569581626391</v>
       </c>
       <c r="G4">
-        <v>0.0007996565951043947</v>
+        <v>0.002449399931391214</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4986526007551433</v>
+        <v>0.8953825050620168</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.687806151845791</v>
+        <v>1.07683212891169</v>
       </c>
       <c r="L4">
-        <v>0.1562631085645165</v>
+        <v>0.1649040348247794</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8517900034753865</v>
+        <v>1.154176628292902</v>
       </c>
       <c r="O4">
-        <v>1.624072408249475</v>
+        <v>3.112112015385208</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1708476160619057</v>
+        <v>0.2013410145127779</v>
       </c>
       <c r="D5">
-        <v>0.03584368088404943</v>
+        <v>0.03128232327498992</v>
       </c>
       <c r="E5">
-        <v>0.1177682305081582</v>
+        <v>0.1319587811505407</v>
       </c>
       <c r="F5">
-        <v>0.5245923871609435</v>
+        <v>0.8802942857605345</v>
       </c>
       <c r="G5">
-        <v>0.0008008247477697221</v>
+        <v>0.00245020863302848</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.490055224569879</v>
+        <v>0.8954407690151385</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.576801432555129</v>
+        <v>1.043332580782106</v>
       </c>
       <c r="L5">
-        <v>0.1510899753498194</v>
+        <v>0.1638482190700756</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.851428208416543</v>
+        <v>1.154835379554946</v>
       </c>
       <c r="O5">
-        <v>1.601801405173262</v>
+        <v>3.114806236566864</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1698842060033883</v>
+        <v>0.2011275511204076</v>
       </c>
       <c r="D6">
-        <v>0.03569749352348239</v>
+        <v>0.03123083812500482</v>
       </c>
       <c r="E6">
-        <v>0.1171028673058174</v>
+        <v>0.131819093890396</v>
       </c>
       <c r="F6">
-        <v>0.5228698005804944</v>
+        <v>0.8802433189985805</v>
       </c>
       <c r="G6">
-        <v>0.0008010201089462889</v>
+        <v>0.002450344410084749</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4886442204489327</v>
+        <v>0.8954591733699147</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.558371827234197</v>
+        <v>1.037770201422035</v>
       </c>
       <c r="L6">
-        <v>0.150234173634594</v>
+        <v>0.1636744220024369</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8513818221615139</v>
+        <v>1.15495151289236</v>
       </c>
       <c r="O6">
-        <v>1.598164169719468</v>
+        <v>3.115285079248707</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1765850363692039</v>
+        <v>0.2026174739847448</v>
       </c>
       <c r="D7">
-        <v>0.0367114859378006</v>
+        <v>0.03158768203552142</v>
       </c>
       <c r="E7">
-        <v>0.1217336874798391</v>
+        <v>0.1327951502442737</v>
       </c>
       <c r="F7">
-        <v>0.5349338981464129</v>
+        <v>0.8806514464982413</v>
       </c>
       <c r="G7">
-        <v>0.0007996722562887503</v>
+        <v>0.002449410737771771</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4985355301067429</v>
+        <v>0.8953827055219392</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.686308903928335</v>
+        <v>1.07638033054522</v>
       </c>
       <c r="L7">
-        <v>0.1561931246176584</v>
+        <v>0.1648896937997719</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.851784201294123</v>
+        <v>1.154185060236763</v>
       </c>
       <c r="O7">
-        <v>1.623767932903007</v>
+        <v>3.112146240506121</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2065191815092504</v>
+        <v>0.209395863660788</v>
       </c>
       <c r="D8">
-        <v>0.04116936290264306</v>
+        <v>0.03314936221469367</v>
       </c>
       <c r="E8">
-        <v>0.1425005955183458</v>
+        <v>0.1372623394358889</v>
       </c>
       <c r="F8">
-        <v>0.5909787078456006</v>
+        <v>0.8837989409145592</v>
       </c>
       <c r="G8">
-        <v>0.0007939235376890799</v>
+        <v>0.002445507124337393</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5447240059404663</v>
+        <v>0.8963151280591291</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.25150033284956</v>
+        <v>1.246772441644566</v>
       </c>
       <c r="L8">
-        <v>0.1829884233196779</v>
+        <v>0.1704734550686595</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8556071526942759</v>
+        <v>1.15178183777077</v>
       </c>
       <c r="O8">
-        <v>1.746059082692511</v>
+        <v>3.102874323001629</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2667973557084338</v>
+        <v>0.2234159414630454</v>
       </c>
       <c r="D9">
-        <v>0.04986108780318688</v>
+        <v>0.0361638755299083</v>
       </c>
       <c r="E9">
-        <v>0.1846619331565762</v>
+        <v>0.1465970629262046</v>
       </c>
       <c r="F9">
-        <v>0.712516152740875</v>
+        <v>0.8948249956531811</v>
       </c>
       <c r="G9">
-        <v>0.000783334547210579</v>
+        <v>0.002438625193397766</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6457717551704221</v>
+        <v>0.9027183782362869</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.364775664641115</v>
+        <v>1.580843144995185</v>
       </c>
       <c r="L9">
-        <v>0.2377008573997443</v>
+        <v>0.1822188684641333</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8710614029702555</v>
+        <v>1.150570888468792</v>
       </c>
       <c r="O9">
-        <v>2.02410547073859</v>
+        <v>3.101200930562754</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3123218454078369</v>
+        <v>0.2341578543523894</v>
       </c>
       <c r="D10">
-        <v>0.05622746421832403</v>
+        <v>0.03834857376553202</v>
       </c>
       <c r="E10">
-        <v>0.21676635617915</v>
+        <v>0.1538061066926275</v>
       </c>
       <c r="F10">
-        <v>0.8104742107467331</v>
+        <v>0.905901344555474</v>
       </c>
       <c r="G10">
-        <v>0.0007759401127866305</v>
+        <v>0.002434035551270021</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7277679778797648</v>
+        <v>0.9102244786447216</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.188559106164917</v>
+        <v>1.826169295927627</v>
       </c>
       <c r="L10">
-        <v>0.2796018551251507</v>
+        <v>0.1913359637895553</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8878821204558989</v>
+        <v>1.151803190741475</v>
       </c>
       <c r="O10">
-        <v>2.256576223227142</v>
+        <v>3.110090354130733</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3333676245389938</v>
+        <v>0.2391400740152108</v>
       </c>
       <c r="D11">
-        <v>0.05912227819666782</v>
+        <v>0.039335756863629</v>
       </c>
       <c r="E11">
-        <v>0.2316773562681007</v>
+        <v>0.1571620401866625</v>
       </c>
       <c r="F11">
-        <v>0.8572968031705699</v>
+        <v>0.9115900688516376</v>
       </c>
       <c r="G11">
-        <v>0.0007726522977117975</v>
+        <v>0.002432047890785787</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7670843418145168</v>
+        <v>0.9142504285586952</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.565289303359066</v>
+        <v>1.937735229814621</v>
       </c>
       <c r="L11">
-        <v>0.299126065427501</v>
+        <v>0.1955901210292978</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8968695196145973</v>
+        <v>1.152822096274605</v>
       </c>
       <c r="O11">
-        <v>2.36962801269587</v>
+        <v>3.116343754377368</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3413914438396262</v>
+        <v>0.2410404066479543</v>
       </c>
       <c r="D12">
-        <v>0.06021853042943803</v>
+        <v>0.03970860337303606</v>
       </c>
       <c r="E12">
-        <v>0.2373733016888906</v>
+        <v>0.1584438402003272</v>
       </c>
       <c r="F12">
-        <v>0.8753864516634593</v>
+        <v>0.9138379660130056</v>
       </c>
       <c r="G12">
-        <v>0.0007714175417773417</v>
+        <v>0.002431309546512282</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7822920797299773</v>
+        <v>0.9158630613586354</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.708294940331825</v>
+        <v>1.97997570194633</v>
       </c>
       <c r="L12">
-        <v>0.3065943067588393</v>
+        <v>0.1972164367484766</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9004782478696427</v>
+        <v>1.153273619063953</v>
       </c>
       <c r="O12">
-        <v>2.413593546022668</v>
+        <v>3.119030371943921</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3396608601822209</v>
+        <v>0.2406305291717672</v>
       </c>
       <c r="D13">
-        <v>0.0599824267434883</v>
+        <v>0.03962834807243354</v>
       </c>
       <c r="E13">
-        <v>0.236144287017936</v>
+        <v>0.1581672935802061</v>
       </c>
       <c r="F13">
-        <v>0.8714739907892266</v>
+        <v>0.9133496701786328</v>
       </c>
       <c r="G13">
-        <v>0.0007716830227929845</v>
+        <v>0.002431467925451538</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7790021155200719</v>
+        <v>0.9155118312682831</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.677479707071882</v>
+        <v>1.970878812561864</v>
       </c>
       <c r="L13">
-        <v>0.3049824202017248</v>
+        <v>0.196865497336276</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8996916853892714</v>
+        <v>1.153173457621833</v>
       </c>
       <c r="O13">
-        <v>2.404071629330076</v>
+        <v>3.118437577697478</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3340266267227605</v>
+        <v>0.2392961419482731</v>
       </c>
       <c r="D14">
-        <v>0.05921246512307476</v>
+        <v>0.03936645090451663</v>
       </c>
       <c r="E14">
-        <v>0.2321449411554752</v>
+        <v>0.1572672746889481</v>
       </c>
       <c r="F14">
-        <v>0.8587776523694401</v>
+        <v>0.9117731255085459</v>
       </c>
       <c r="G14">
-        <v>0.0007725505117423746</v>
+        <v>0.002431986859787038</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7683289106810918</v>
+        <v>0.9143813343068175</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.577047162339625</v>
+        <v>1.941210534336676</v>
       </c>
       <c r="L14">
-        <v>0.2997389325346091</v>
+        <v>0.195723611140096</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8971622154106882</v>
+        <v>1.152857928134736</v>
       </c>
       <c r="O14">
-        <v>2.373221295462571</v>
+        <v>3.116558394071262</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3305827414265536</v>
+        <v>0.2384805695648424</v>
       </c>
       <c r="D15">
-        <v>0.05874085511568694</v>
+        <v>0.03920590325933659</v>
       </c>
       <c r="E15">
-        <v>0.229701836727493</v>
+        <v>0.1567174165580596</v>
       </c>
       <c r="F15">
-        <v>0.8510485732286384</v>
+        <v>0.9108196556791057</v>
       </c>
       <c r="G15">
-        <v>0.0007730831907616487</v>
+        <v>0.002432306587554712</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7618337893979543</v>
+        <v>0.9137003498056515</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.515576281631013</v>
+        <v>1.923036863747143</v>
       </c>
       <c r="L15">
-        <v>0.2965371480022299</v>
+        <v>0.1950261732938969</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.895640003723102</v>
+        <v>1.152673204947419</v>
       </c>
       <c r="O15">
-        <v>2.354478302459597</v>
+        <v>3.115448855235172</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3109537148616255</v>
+        <v>0.2338341725999271</v>
       </c>
       <c r="D16">
-        <v>0.05603827492657132</v>
+        <v>0.03828392334899888</v>
       </c>
       <c r="E16">
-        <v>0.2157985068546324</v>
+        <v>0.1535883262578963</v>
       </c>
       <c r="F16">
-        <v>0.8074625727978031</v>
+        <v>0.9055426728037048</v>
       </c>
       <c r="G16">
-        <v>0.0007761564527579393</v>
+        <v>0.002434167459748005</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7252416036419191</v>
+        <v>0.9099736910867691</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.163983925576645</v>
+        <v>1.818877322947174</v>
       </c>
       <c r="L16">
-        <v>0.2783359123457103</v>
+        <v>0.191060093352192</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8873227656923603</v>
+        <v>1.15174580646385</v>
       </c>
       <c r="O16">
-        <v>2.249343749639479</v>
+        <v>3.109726215082588</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2990021419117284</v>
+        <v>0.2310082027379963</v>
       </c>
       <c r="D17">
-        <v>0.05438015975100541</v>
+        <v>0.03771660003316413</v>
       </c>
       <c r="E17">
-        <v>0.2073514795643447</v>
+        <v>0.1516883106383347</v>
       </c>
       <c r="F17">
-        <v>0.7813263166232502</v>
+        <v>0.9024720660161734</v>
       </c>
       <c r="G17">
-        <v>0.0007780608019055386</v>
+        <v>0.002435334657187026</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7033301402802152</v>
+        <v>0.9078442229893255</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.948843630425586</v>
+        <v>1.754968491125794</v>
       </c>
       <c r="L17">
-        <v>0.2672943418608327</v>
+        <v>0.1886543780514671</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8825716626574973</v>
+        <v>1.151294105857687</v>
       </c>
       <c r="O17">
-        <v>2.186789289638114</v>
+        <v>3.106782092455092</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2921592053680229</v>
+        <v>0.2293917894494371</v>
       </c>
       <c r="D18">
-        <v>0.05342631968678546</v>
+        <v>0.03738966634388419</v>
       </c>
       <c r="E18">
-        <v>0.2025214780612998</v>
+        <v>0.1506026739757687</v>
       </c>
       <c r="F18">
-        <v>0.7665040732103989</v>
+        <v>0.9007671053338129</v>
       </c>
       <c r="G18">
-        <v>0.0007791633238121688</v>
+        <v>0.002436015432912577</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6909150848822136</v>
+        <v>0.9066769453803758</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.825283730878994</v>
+        <v>1.718206737594016</v>
       </c>
       <c r="L18">
-        <v>0.2609865936752556</v>
+        <v>0.1872807210429528</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8799638074553258</v>
+        <v>1.151077452087023</v>
       </c>
       <c r="O18">
-        <v>2.151489905941077</v>
+        <v>3.105296633556975</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2898475080796175</v>
+        <v>0.2288460496603477</v>
       </c>
       <c r="D19">
-        <v>0.05310333572892745</v>
+        <v>0.03727886567352101</v>
       </c>
       <c r="E19">
-        <v>0.2008908609351039</v>
+        <v>0.1502363336344175</v>
       </c>
       <c r="F19">
-        <v>0.7615207054836759</v>
+        <v>0.9002003342470601</v>
       </c>
       <c r="G19">
-        <v>0.0007795378729441736</v>
+        <v>0.002436247554298972</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6867429572141361</v>
+        <v>0.9062916017557612</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.783478166435032</v>
+        <v>1.705759377434845</v>
       </c>
       <c r="L19">
-        <v>0.2588580558470426</v>
+        <v>0.1868173496575452</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.879101885832938</v>
+        <v>1.151011515184663</v>
       </c>
       <c r="O19">
-        <v>2.139651897045979</v>
+        <v>3.104829367438299</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3002711276820378</v>
+        <v>0.2313081001724413</v>
       </c>
       <c r="D20">
-        <v>0.0545566814089895</v>
+        <v>0.03777705734634651</v>
       </c>
       <c r="E20">
-        <v>0.2082476921585155</v>
+        <v>0.1518898253048704</v>
       </c>
       <c r="F20">
-        <v>0.7840865285893415</v>
+        <v>0.9027926047270256</v>
       </c>
       <c r="G20">
-        <v>0.0007778573410957627</v>
+        <v>0.002435209431204103</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7056430052615283</v>
+        <v>0.9080649524526976</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.971726310551276</v>
+        <v>1.761772030592681</v>
       </c>
       <c r="L20">
-        <v>0.2684652206545906</v>
+        <v>0.1889094306814627</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8830644103396139</v>
+        <v>1.151337725662941</v>
       </c>
       <c r="O20">
-        <v>2.193377172925295</v>
+        <v>3.107073973897855</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3356800166142193</v>
+        <v>0.2396877133692215</v>
       </c>
       <c r="D21">
-        <v>0.05943861820589547</v>
+        <v>0.03944340318108885</v>
       </c>
       <c r="E21">
-        <v>0.2333182581328401</v>
+        <v>0.1575313341990423</v>
       </c>
       <c r="F21">
-        <v>0.8624968502059716</v>
+        <v>0.9122336500836781</v>
       </c>
       <c r="G21">
-        <v>0.0007722954359574707</v>
+        <v>0.002431834047687975</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7714549713446885</v>
+        <v>0.9147109964467575</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.60653673499985</v>
+        <v>1.949925037807873</v>
       </c>
       <c r="L21">
-        <v>0.3012769716817729</v>
+        <v>0.1960585938941648</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8978994963402442</v>
+        <v>1.152948825837967</v>
       </c>
       <c r="O21">
-        <v>2.382250549341848</v>
+        <v>3.117101702550286</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3591409847149123</v>
+        <v>0.2452439401477591</v>
       </c>
       <c r="D22">
-        <v>0.06262965761899864</v>
+        <v>0.04052674387851596</v>
       </c>
       <c r="E22">
-        <v>0.2499945154257261</v>
+        <v>0.1612823816827245</v>
       </c>
       <c r="F22">
-        <v>0.9158524099031098</v>
+        <v>0.9189501831343136</v>
       </c>
       <c r="G22">
-        <v>0.0007687199219541704</v>
+        <v>0.002429711589449997</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8163445638681779</v>
+        <v>0.9195681252255028</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.023471236750026</v>
+        <v>2.072851349433961</v>
       </c>
       <c r="L22">
-        <v>0.3231619288089291</v>
+        <v>0.2008205116875814</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9087992144024639</v>
+        <v>1.154384540070367</v>
       </c>
       <c r="O22">
-        <v>2.51247922496816</v>
+        <v>3.125512791472232</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3465881569667033</v>
+        <v>0.2422712153657187</v>
       </c>
       <c r="D23">
-        <v>0.06092641871427418</v>
+        <v>0.03994907465170172</v>
       </c>
       <c r="E23">
-        <v>0.2410655407092293</v>
+        <v>0.1592745281632872</v>
       </c>
       <c r="F23">
-        <v>0.8871706085222115</v>
+        <v>0.9153153852615645</v>
       </c>
       <c r="G23">
-        <v>0.0007706230242651797</v>
+        <v>0.002430836762817734</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7922039310329865</v>
+        <v>0.9169287356741833</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.800736587763254</v>
+        <v>2.007247886347898</v>
       </c>
       <c r="L23">
-        <v>0.3114383025859127</v>
+        <v>0.1982707919401037</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9028669760549803</v>
+        <v>1.153583320353917</v>
       </c>
       <c r="O23">
-        <v>2.442315419131546</v>
+        <v>3.120853400015704</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2996973318722098</v>
+        <v>0.2311724907625035</v>
       </c>
       <c r="D24">
-        <v>0.05447687775250643</v>
+        <v>0.03774972699823564</v>
       </c>
       <c r="E24">
-        <v>0.2078424329067659</v>
+        <v>0.1517986996300777</v>
       </c>
       <c r="F24">
-        <v>0.7828380043738719</v>
+        <v>0.9026475011356467</v>
       </c>
       <c r="G24">
-        <v>0.0007779493017635811</v>
+        <v>0.002435266015479587</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.704596793898375</v>
+        <v>0.9079649831781893</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.961380659407723</v>
+        <v>1.758696211641222</v>
       </c>
       <c r="L24">
-        <v>0.2679357417592456</v>
+        <v>0.1887940920453559</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8828412550694651</v>
+        <v>1.15131787107795</v>
       </c>
       <c r="O24">
-        <v>2.190396730535838</v>
+        <v>3.10694136907162</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2502942796071324</v>
+        <v>0.219545469377934</v>
       </c>
       <c r="D25">
-        <v>0.04751402911532665</v>
+        <v>0.03535358925951471</v>
       </c>
       <c r="E25">
-        <v>0.1730773390524547</v>
+        <v>0.1440102041349007</v>
       </c>
       <c r="F25">
-        <v>0.6782358589881312</v>
+        <v>0.8913208151911931</v>
       </c>
       <c r="G25">
-        <v>0.0007861290660323415</v>
+        <v>0.002440404671843647</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6171786872087992</v>
+        <v>0.9004950534143248</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.06279598295896</v>
+        <v>1.490483132296617</v>
       </c>
       <c r="L25">
-        <v>0.2226298663971278</v>
+        <v>0.1789559638398686</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8659678992752902</v>
+        <v>1.150524944825904</v>
       </c>
       <c r="O25">
-        <v>1.944310143087137</v>
+        <v>3.099880599472499</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_134/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_134/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2112817974325054</v>
+        <v>0.214726999380602</v>
       </c>
       <c r="D2">
-        <v>0.03356928693140304</v>
+        <v>0.04237345317877583</v>
       </c>
       <c r="E2">
-        <v>0.1385115884149286</v>
+        <v>0.1482159317583971</v>
       </c>
       <c r="F2">
-        <v>0.884979621285467</v>
+        <v>0.6068967491446671</v>
       </c>
       <c r="G2">
-        <v>0.002444501933936343</v>
+        <v>0.0007924133419204823</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8968768905397013</v>
+        <v>0.5578998586287724</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.292938381585259</v>
+        <v>3.404874969301432</v>
       </c>
       <c r="L2">
-        <v>0.1720401223051127</v>
+        <v>0.1903819995155374</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.151368158417853</v>
+        <v>0.8571602155995777</v>
       </c>
       <c r="O2">
-        <v>3.101477292433259</v>
+        <v>1.781611933356572</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2058674232783773</v>
+        <v>0.1910349557481936</v>
       </c>
       <c r="D3">
-        <v>0.03234779499374696</v>
+        <v>0.03887722506947711</v>
       </c>
       <c r="E3">
-        <v>0.1349320559623308</v>
+        <v>0.1317426753318678</v>
       </c>
       <c r="F3">
-        <v>0.8819231710076352</v>
+        <v>0.5615726342060938</v>
       </c>
       <c r="G3">
-        <v>0.002447475992539661</v>
+        <v>0.0007968459940126758</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8955943750005275</v>
+        <v>0.5204458053735479</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.159043441705194</v>
+        <v>2.960354374696209</v>
       </c>
       <c r="L3">
-        <v>0.1675567201159041</v>
+        <v>0.1690934257668886</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.152833937551137</v>
+        <v>0.8532437479806561</v>
       </c>
       <c r="O3">
-        <v>3.106779978279462</v>
+        <v>1.681274704670386</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2026350195367712</v>
+        <v>0.1766636320130885</v>
       </c>
       <c r="D4">
-        <v>0.0315918504884749</v>
+        <v>0.03672334134926558</v>
       </c>
       <c r="E4">
-        <v>0.1328066588962393</v>
+        <v>0.1217880445818942</v>
       </c>
       <c r="F4">
-        <v>0.8806569581626391</v>
+        <v>0.5350765310292047</v>
       </c>
       <c r="G4">
-        <v>0.002449399931391214</v>
+        <v>0.0007996565951385354</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8953825050620168</v>
+        <v>0.4986526007551504</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.07683212891169</v>
+        <v>2.687806151845763</v>
       </c>
       <c r="L4">
-        <v>0.1649040348247794</v>
+        <v>0.1562631085645663</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.154176628292902</v>
+        <v>0.8517900034754291</v>
       </c>
       <c r="O4">
-        <v>3.112112015385208</v>
+        <v>1.624072408249475</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2013410145127779</v>
+        <v>0.1708476160622752</v>
       </c>
       <c r="D5">
-        <v>0.03128232327498992</v>
+        <v>0.0358436808840068</v>
       </c>
       <c r="E5">
-        <v>0.1319587811505407</v>
+        <v>0.1177682305081618</v>
       </c>
       <c r="F5">
-        <v>0.8802942857605345</v>
+        <v>0.5245923871609435</v>
       </c>
       <c r="G5">
-        <v>0.00245020863302848</v>
+        <v>0.0008008247476889482</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8954407690151385</v>
+        <v>0.4900552245698719</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.043332580782106</v>
+        <v>2.576801432555186</v>
       </c>
       <c r="L5">
-        <v>0.1638482190700756</v>
+        <v>0.1510899753498194</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.154835379554946</v>
+        <v>0.8514282084165288</v>
       </c>
       <c r="O5">
-        <v>3.114806236566864</v>
+        <v>1.601801405173319</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2011275511204076</v>
+        <v>0.1698842060033883</v>
       </c>
       <c r="D6">
-        <v>0.03123083812500482</v>
+        <v>0.0356974935234895</v>
       </c>
       <c r="E6">
-        <v>0.131819093890396</v>
+        <v>0.1171028673058245</v>
       </c>
       <c r="F6">
-        <v>0.8802433189985805</v>
+        <v>0.5228698005804944</v>
       </c>
       <c r="G6">
-        <v>0.002450344410084749</v>
+        <v>0.0008010201088306458</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8954591733699147</v>
+        <v>0.4886442204489398</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.037770201422035</v>
+        <v>2.558371827234311</v>
       </c>
       <c r="L6">
-        <v>0.1636744220024369</v>
+        <v>0.1502341736346438</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.15495151289236</v>
+        <v>0.851381822161521</v>
       </c>
       <c r="O6">
-        <v>3.115285079248707</v>
+        <v>1.598164169719496</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2026174739847448</v>
+        <v>0.1765850363690902</v>
       </c>
       <c r="D7">
-        <v>0.03158768203552142</v>
+        <v>0.03671148593791429</v>
       </c>
       <c r="E7">
-        <v>0.1327951502442737</v>
+        <v>0.121733687479832</v>
       </c>
       <c r="F7">
-        <v>0.8806514464982413</v>
+        <v>0.5349338981464271</v>
       </c>
       <c r="G7">
-        <v>0.002449410737771771</v>
+        <v>0.0007996722562879053</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8953827055219392</v>
+        <v>0.49853553010675</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.07638033054522</v>
+        <v>2.686308903928364</v>
       </c>
       <c r="L7">
-        <v>0.1648896937997719</v>
+        <v>0.1561931246176727</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.154185060236763</v>
+        <v>0.851784201294187</v>
       </c>
       <c r="O7">
-        <v>3.112146240506121</v>
+        <v>1.623767932903064</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.209395863660788</v>
+        <v>0.2065191815092646</v>
       </c>
       <c r="D8">
-        <v>0.03314936221469367</v>
+        <v>0.04116936290264306</v>
       </c>
       <c r="E8">
-        <v>0.1372623394358889</v>
+        <v>0.1425005955183281</v>
       </c>
       <c r="F8">
-        <v>0.8837989409145592</v>
+        <v>0.5909787078456006</v>
       </c>
       <c r="G8">
-        <v>0.002445507124337393</v>
+        <v>0.0007939235377216251</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8963151280591291</v>
+        <v>0.5447240059404592</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.246772441644566</v>
+        <v>3.25150033284956</v>
       </c>
       <c r="L8">
-        <v>0.1704734550686595</v>
+        <v>0.1829884233198555</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.15178183777077</v>
+        <v>0.8556071526942759</v>
       </c>
       <c r="O8">
-        <v>3.102874323001629</v>
+        <v>1.74605908269254</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2234159414630454</v>
+        <v>0.2667973557084338</v>
       </c>
       <c r="D9">
-        <v>0.0361638755299083</v>
+        <v>0.04986108780306608</v>
       </c>
       <c r="E9">
-        <v>0.1465970629262046</v>
+        <v>0.184661933156562</v>
       </c>
       <c r="F9">
-        <v>0.8948249956531811</v>
+        <v>0.712516152740875</v>
       </c>
       <c r="G9">
-        <v>0.002438625193397766</v>
+        <v>0.0007833345471816035</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9027183782362869</v>
+        <v>0.6457717551704292</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.580843144995185</v>
+        <v>4.364775664641115</v>
       </c>
       <c r="L9">
-        <v>0.1822188684641333</v>
+        <v>0.2377008573997443</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.150570888468792</v>
+        <v>0.8710614029703123</v>
       </c>
       <c r="O9">
-        <v>3.101200930562754</v>
+        <v>2.024105470738533</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2341578543523894</v>
+        <v>0.3123218454079506</v>
       </c>
       <c r="D10">
-        <v>0.03834857376553202</v>
+        <v>0.05622746421837377</v>
       </c>
       <c r="E10">
-        <v>0.1538061066926275</v>
+        <v>0.2167663561791429</v>
       </c>
       <c r="F10">
-        <v>0.905901344555474</v>
+        <v>0.8104742107467473</v>
       </c>
       <c r="G10">
-        <v>0.002434035551270021</v>
+        <v>0.0007759401127863086</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9102244786447216</v>
+        <v>0.7277679778797719</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.826169295927627</v>
+        <v>5.18855910616503</v>
       </c>
       <c r="L10">
-        <v>0.1913359637895553</v>
+        <v>0.2796018551250654</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.151803190741475</v>
+        <v>0.8878821204558847</v>
       </c>
       <c r="O10">
-        <v>3.110090354130733</v>
+        <v>2.256576223227142</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2391400740152108</v>
+        <v>0.3333676245391075</v>
       </c>
       <c r="D11">
-        <v>0.039335756863629</v>
+        <v>0.05912227819661808</v>
       </c>
       <c r="E11">
-        <v>0.1571620401866625</v>
+        <v>0.2316773562680794</v>
       </c>
       <c r="F11">
-        <v>0.9115900688516376</v>
+        <v>0.8572968031705557</v>
       </c>
       <c r="G11">
-        <v>0.002432047890785787</v>
+        <v>0.0007726522977117182</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9142504285586952</v>
+        <v>0.7670843418145097</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.937735229814621</v>
+        <v>5.565289303358952</v>
       </c>
       <c r="L11">
-        <v>0.1955901210292978</v>
+        <v>0.2991260654275152</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.152822096274605</v>
+        <v>0.8968695196145831</v>
       </c>
       <c r="O11">
-        <v>3.116343754377368</v>
+        <v>2.36962801269587</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2410404066479543</v>
+        <v>0.3413914438396546</v>
       </c>
       <c r="D12">
-        <v>0.03970860337303606</v>
+        <v>0.06021853042950198</v>
       </c>
       <c r="E12">
-        <v>0.1584438402003272</v>
+        <v>0.2373733016888906</v>
       </c>
       <c r="F12">
-        <v>0.9138379660130056</v>
+        <v>0.8753864516634593</v>
       </c>
       <c r="G12">
-        <v>0.002431309546512282</v>
+        <v>0.0007714175417181194</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9158630613586354</v>
+        <v>0.7822920797299844</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.97997570194633</v>
+        <v>5.708294940331825</v>
       </c>
       <c r="L12">
-        <v>0.1972164367484766</v>
+        <v>0.3065943067588961</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.153273619063953</v>
+        <v>0.9004782478696285</v>
       </c>
       <c r="O12">
-        <v>3.119030371943921</v>
+        <v>2.413593546022724</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2406305291717672</v>
+        <v>0.3396608601820787</v>
       </c>
       <c r="D13">
-        <v>0.03962834807243354</v>
+        <v>0.0599824267434883</v>
       </c>
       <c r="E13">
-        <v>0.1581672935802061</v>
+        <v>0.2361442870179005</v>
       </c>
       <c r="F13">
-        <v>0.9133496701786328</v>
+        <v>0.8714739907892408</v>
       </c>
       <c r="G13">
-        <v>0.002431467925451538</v>
+        <v>0.0007716830227624402</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9155118312682831</v>
+        <v>0.7790021155200648</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.970878812561864</v>
+        <v>5.677479707071939</v>
       </c>
       <c r="L13">
-        <v>0.196865497336276</v>
+        <v>0.3049824202016538</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.153173457621833</v>
+        <v>0.8996916853892571</v>
       </c>
       <c r="O13">
-        <v>3.118437577697478</v>
+        <v>2.404071629330105</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2392961419482731</v>
+        <v>0.3340266267227321</v>
       </c>
       <c r="D14">
-        <v>0.03936645090451663</v>
+        <v>0.05921246512306055</v>
       </c>
       <c r="E14">
-        <v>0.1572672746889481</v>
+        <v>0.2321449411554752</v>
       </c>
       <c r="F14">
-        <v>0.9117731255085459</v>
+        <v>0.8587776523694401</v>
       </c>
       <c r="G14">
-        <v>0.002431986859787038</v>
+        <v>0.0007725505117429313</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9143813343068175</v>
+        <v>0.7683289106810847</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.941210534336676</v>
+        <v>5.577047162339682</v>
       </c>
       <c r="L14">
-        <v>0.195723611140096</v>
+        <v>0.299738932534666</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.152857928134736</v>
+        <v>0.897162215410745</v>
       </c>
       <c r="O14">
-        <v>3.116558394071262</v>
+        <v>2.373221295462571</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2384805695648424</v>
+        <v>0.3305827414265536</v>
       </c>
       <c r="D15">
-        <v>0.03920590325933659</v>
+        <v>0.0587408551156301</v>
       </c>
       <c r="E15">
-        <v>0.1567174165580596</v>
+        <v>0.2297018367275001</v>
       </c>
       <c r="F15">
-        <v>0.9108196556791057</v>
+        <v>0.8510485732286384</v>
       </c>
       <c r="G15">
-        <v>0.002432306587554712</v>
+        <v>0.0007730831907614005</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9137003498056515</v>
+        <v>0.7618337893979543</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.923036863747143</v>
+        <v>5.51557628163124</v>
       </c>
       <c r="L15">
-        <v>0.1950261732938969</v>
+        <v>0.2965371480021304</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.152673204947419</v>
+        <v>0.8956400037230878</v>
       </c>
       <c r="O15">
-        <v>3.115448855235172</v>
+        <v>2.354478302459654</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2338341725999271</v>
+        <v>0.3109537148616255</v>
       </c>
       <c r="D16">
-        <v>0.03828392334899888</v>
+        <v>0.05603827492664237</v>
       </c>
       <c r="E16">
-        <v>0.1535883262578963</v>
+        <v>0.2157985068546253</v>
       </c>
       <c r="F16">
-        <v>0.9055426728037048</v>
+        <v>0.8074625727977889</v>
       </c>
       <c r="G16">
-        <v>0.002434167459748005</v>
+        <v>0.0007761564527580811</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9099736910867691</v>
+        <v>0.7252416036419049</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.818877322947174</v>
+        <v>5.163983925576645</v>
       </c>
       <c r="L16">
-        <v>0.191060093352192</v>
+        <v>0.2783359123457103</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.15174580646385</v>
+        <v>0.8873227656923035</v>
       </c>
       <c r="O16">
-        <v>3.109726215082588</v>
+        <v>2.249343749639422</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2310082027379963</v>
+        <v>0.2990021419119557</v>
       </c>
       <c r="D17">
-        <v>0.03771660003316413</v>
+        <v>0.05438015975111199</v>
       </c>
       <c r="E17">
-        <v>0.1516883106383347</v>
+        <v>0.2073514795643518</v>
       </c>
       <c r="F17">
-        <v>0.9024720660161734</v>
+        <v>0.7813263166232502</v>
       </c>
       <c r="G17">
-        <v>0.002435334657187026</v>
+        <v>0.0007780608019631183</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9078442229893255</v>
+        <v>0.7033301402802152</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.754968491125794</v>
+        <v>4.948843630425529</v>
       </c>
       <c r="L17">
-        <v>0.1886543780514671</v>
+        <v>0.2672943418607758</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.151294105857687</v>
+        <v>0.8825716626574973</v>
       </c>
       <c r="O17">
-        <v>3.106782092455092</v>
+        <v>2.186789289638057</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2293917894494371</v>
+        <v>0.2921592053679944</v>
       </c>
       <c r="D18">
-        <v>0.03738966634388419</v>
+        <v>0.05342631968690625</v>
       </c>
       <c r="E18">
-        <v>0.1506026739757687</v>
+        <v>0.2025214780612998</v>
       </c>
       <c r="F18">
-        <v>0.9007671053338129</v>
+        <v>0.7665040732103847</v>
       </c>
       <c r="G18">
-        <v>0.002436015432912577</v>
+        <v>0.0007791633238123489</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9066769453803758</v>
+        <v>0.6909150848821994</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.718206737594016</v>
+        <v>4.82528373087905</v>
       </c>
       <c r="L18">
-        <v>0.1872807210429528</v>
+        <v>0.2609865936753124</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.151077452087023</v>
+        <v>0.8799638074553684</v>
       </c>
       <c r="O18">
-        <v>3.105296633556975</v>
+        <v>2.151489905941133</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2288460496603477</v>
+        <v>0.2898475080796175</v>
       </c>
       <c r="D19">
-        <v>0.03727886567352101</v>
+        <v>0.05310333572894166</v>
       </c>
       <c r="E19">
-        <v>0.1502363336344175</v>
+        <v>0.2008908609350826</v>
       </c>
       <c r="F19">
-        <v>0.9002003342470601</v>
+        <v>0.7615207054836617</v>
       </c>
       <c r="G19">
-        <v>0.002436247554298972</v>
+        <v>0.00077953787288766</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9062916017557612</v>
+        <v>0.6867429572141361</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.705759377434845</v>
+        <v>4.783478166435032</v>
       </c>
       <c r="L19">
-        <v>0.1868173496575452</v>
+        <v>0.2588580558469857</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.151011515184663</v>
+        <v>0.8791018858329949</v>
       </c>
       <c r="O19">
-        <v>3.104829367438299</v>
+        <v>2.139651897046008</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2313081001724413</v>
+        <v>0.3002711276821799</v>
       </c>
       <c r="D20">
-        <v>0.03777705734634651</v>
+        <v>0.05455668140864844</v>
       </c>
       <c r="E20">
-        <v>0.1518898253048704</v>
+        <v>0.208247692158551</v>
       </c>
       <c r="F20">
-        <v>0.9027926047270256</v>
+        <v>0.7840865285893557</v>
       </c>
       <c r="G20">
-        <v>0.002435209431204103</v>
+        <v>0.0007778573410951098</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9080649524526976</v>
+        <v>0.7056430052615212</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.761772030592681</v>
+        <v>4.971726310551333</v>
       </c>
       <c r="L20">
-        <v>0.1889094306814627</v>
+        <v>0.2684652206545906</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.151337725662941</v>
+        <v>0.8830644103395429</v>
       </c>
       <c r="O20">
-        <v>3.107073973897855</v>
+        <v>2.193377172925295</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2396877133692215</v>
+        <v>0.3356800166144751</v>
       </c>
       <c r="D21">
-        <v>0.03944340318108885</v>
+        <v>0.05943861820573204</v>
       </c>
       <c r="E21">
-        <v>0.1575313341990423</v>
+        <v>0.2333182581328543</v>
       </c>
       <c r="F21">
-        <v>0.9122336500836781</v>
+        <v>0.8624968502059716</v>
       </c>
       <c r="G21">
-        <v>0.002431834047687975</v>
+        <v>0.0007722954359589441</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9147109964467575</v>
+        <v>0.7714549713446885</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.949925037807873</v>
+        <v>5.60653673499985</v>
       </c>
       <c r="L21">
-        <v>0.1960585938941648</v>
+        <v>0.3012769716817871</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.152948825837967</v>
+        <v>0.8978994963401874</v>
       </c>
       <c r="O21">
-        <v>3.117101702550286</v>
+        <v>2.382250549341819</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2452439401477591</v>
+        <v>0.3591409847152249</v>
       </c>
       <c r="D22">
-        <v>0.04052674387851596</v>
+        <v>0.06262965761892048</v>
       </c>
       <c r="E22">
-        <v>0.1612823816827245</v>
+        <v>0.249994515425719</v>
       </c>
       <c r="F22">
-        <v>0.9189501831343136</v>
+        <v>0.9158524099031098</v>
       </c>
       <c r="G22">
-        <v>0.002429711589449997</v>
+        <v>0.000768719921985469</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9195681252255028</v>
+        <v>0.8163445638681779</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.072851349433961</v>
+        <v>6.023471236749913</v>
       </c>
       <c r="L22">
-        <v>0.2008205116875814</v>
+        <v>0.3231619288089291</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.154384540070367</v>
+        <v>0.9087992144024497</v>
       </c>
       <c r="O22">
-        <v>3.125512791472232</v>
+        <v>2.51247922496816</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2422712153657187</v>
+        <v>0.3465881569667033</v>
       </c>
       <c r="D23">
-        <v>0.03994907465170172</v>
+        <v>0.06092641871428128</v>
       </c>
       <c r="E23">
-        <v>0.1592745281632872</v>
+        <v>0.2410655407092435</v>
       </c>
       <c r="F23">
-        <v>0.9153153852615645</v>
+        <v>0.8871706085222257</v>
       </c>
       <c r="G23">
-        <v>0.002430836762817734</v>
+        <v>0.0007706230242636609</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9169287356741833</v>
+        <v>0.7922039310329865</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.007247886347898</v>
+        <v>5.800736587763197</v>
       </c>
       <c r="L23">
-        <v>0.1982707919401037</v>
+        <v>0.3114383025859837</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.153583320353917</v>
+        <v>0.9028669760549803</v>
       </c>
       <c r="O23">
-        <v>3.120853400015704</v>
+        <v>2.442315419131489</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2311724907625035</v>
+        <v>0.2996973318722098</v>
       </c>
       <c r="D24">
-        <v>0.03774972699823564</v>
+        <v>0.0544768777527338</v>
       </c>
       <c r="E24">
-        <v>0.1517986996300777</v>
+        <v>0.2078424329067659</v>
       </c>
       <c r="F24">
-        <v>0.9026475011356467</v>
+        <v>0.7828380043738719</v>
       </c>
       <c r="G24">
-        <v>0.002435266015479587</v>
+        <v>0.000777949301734961</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9079649831781893</v>
+        <v>0.704596793898375</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.758696211641222</v>
+        <v>4.96138065940778</v>
       </c>
       <c r="L24">
-        <v>0.1887940920453559</v>
+        <v>0.2679357417591888</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.15131787107795</v>
+        <v>0.8828412550694793</v>
       </c>
       <c r="O24">
-        <v>3.10694136907162</v>
+        <v>2.190396730535838</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.219545469377934</v>
+        <v>0.2502942796072318</v>
       </c>
       <c r="D25">
-        <v>0.03535358925951471</v>
+        <v>0.04751402911567482</v>
       </c>
       <c r="E25">
-        <v>0.1440102041349007</v>
+        <v>0.1730773390524547</v>
       </c>
       <c r="F25">
-        <v>0.8913208151911931</v>
+        <v>0.678235858988117</v>
       </c>
       <c r="G25">
-        <v>0.002440404671843647</v>
+        <v>0.000786129066061011</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9004950534143248</v>
+        <v>0.6171786872087992</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.490483132296617</v>
+        <v>4.062795982959017</v>
       </c>
       <c r="L25">
-        <v>0.1789559638398686</v>
+        <v>0.2226298663970852</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.150524944825904</v>
+        <v>0.8659678992753612</v>
       </c>
       <c r="O25">
-        <v>3.099880599472499</v>
+        <v>1.944310143087165</v>
       </c>
     </row>
   </sheetData>
